--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dariu\Desktop\Erettsegizzunk-Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BC2049-BC2F-4326-A210-A61C41D6B584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B06974-6B56-49FF-AC85-6514545B159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Docs" sheetId="5" r:id="rId1"/>
-    <sheet name="test_page_title" sheetId="1" r:id="rId2"/>
-    <sheet name="test_element_presence" sheetId="2" r:id="rId3"/>
-    <sheet name="test_navigation" sheetId="3" r:id="rId4"/>
-    <sheet name="test_function" sheetId="4" r:id="rId5"/>
+    <sheet name="ErrorMSG" sheetId="6" r:id="rId2"/>
+    <sheet name="test_page_title" sheetId="1" r:id="rId3"/>
+    <sheet name="test_element_presence" sheetId="2" r:id="rId4"/>
+    <sheet name="test_navigation" sheetId="3" r:id="rId5"/>
+    <sheet name="test_function" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="90">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -186,13 +187,127 @@
   </si>
   <si>
     <t>5.58s</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Az elem nem található</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>GetFeladatoks</t>
+  </si>
+  <si>
+    <t>Hiba történt az adatok lekérdezése közben</t>
+  </si>
+  <si>
+    <t>GetFeladatoksTipusSzint</t>
+  </si>
+  <si>
+    <t>A keresési feltétel nem lehet üres</t>
+  </si>
+  <si>
+    <t>A keresett adat nem található</t>
+  </si>
+  <si>
+    <t>GetFeladat</t>
+  </si>
+  <si>
+    <t>PutFeladatok</t>
+  </si>
+  <si>
+    <t>Hozzáférés megtagadva</t>
+  </si>
+  <si>
+    <t>Helytelen azonosító</t>
+  </si>
+  <si>
+    <t>Hiba történt az adatok mentése közben</t>
+  </si>
+  <si>
+    <t>PostFeladat</t>
+  </si>
+  <si>
+    <t>PostFeladatok</t>
+  </si>
+  <si>
+    <t>A feltöltendő adat nem lehet üres</t>
+  </si>
+  <si>
+    <t>DeleteFeladatok</t>
+  </si>
+  <si>
+    <t>Hiba történt az adatok törlése közben</t>
+  </si>
+  <si>
+    <t>Törlendő adat nem található</t>
+  </si>
+  <si>
+    <t>Kapcsolati hiba</t>
+  </si>
+  <si>
+    <t>Hibás név, jelszó páros</t>
+  </si>
+  <si>
+    <t>SaltRequest</t>
+  </si>
+  <si>
+    <t>Hiba történt a bejelentkezés során</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Registry</t>
+  </si>
+  <si>
+    <t>Hiba történt a regisztráció során</t>
+  </si>
+  <si>
+    <t>EndOfTheRegistry</t>
+  </si>
+  <si>
+    <t>GetTantargyak</t>
+  </si>
+  <si>
+    <t>PostTantargyak</t>
+  </si>
+  <si>
+    <t>PutTantargyak</t>
+  </si>
+  <si>
+    <t>DeleteTantargyak</t>
+  </si>
+  <si>
+    <t>GetFelhasznalok</t>
+  </si>
+  <si>
+    <t>GetKorlevel</t>
+  </si>
+  <si>
+    <t>PutFelhasznalok</t>
+  </si>
+  <si>
+    <t>DeleteFelhasznalok</t>
+  </si>
+  <si>
+    <t>Api errorMSG</t>
+  </si>
+  <si>
+    <t>Admin errorMSG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +322,47 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -243,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -252,6 +401,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,21 +694,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5FF267-F947-44FF-9106-CA6185654F98}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -566,7 +725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -583,7 +742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -600,7 +759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
@@ -617,7 +776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -640,6 +799,1180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
+  <dimension ref="A1:C133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="80.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>57</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>60</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>61</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>64</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>66</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>69</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>70</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>71</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>73</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>74</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>76</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>77</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>78</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
+        <v>79</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>80</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="11"/>
+    </row>
+    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="11"/>
+    </row>
+    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="11"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="11"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+    </row>
+    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A100" s="9"/>
+      <c r="B100" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>500</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
+        <v>501</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -647,16 +1980,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,7 +2003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -684,7 +2017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -702,7 +2035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7591F0D7-29BF-434D-9D48-85DDD91AD0D5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -710,16 +2043,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="37.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -733,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -747,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -759,7 +2092,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -776,7 +2109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09277DF6-3E9C-472A-A761-D842BEF4921B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -784,16 +2117,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -807,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -821,7 +2154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -833,7 +2166,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -850,7 +2183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366C0304-8F71-4FA9-8DE7-2CE4C3CFD20A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -858,16 +2191,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -881,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -895,7 +2228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -909,7 +2242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -921,7 +2254,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -935,7 +2268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -947,7 +2280,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -961,7 +2294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -973,7 +2306,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -987,7 +2320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -999,7 +2332,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B06974-6B56-49FF-AC85-6514545B159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA84AD-D65C-4FE8-A6E2-67FC58AD46B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="103">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -301,6 +301,45 @@
   </si>
   <si>
     <t>Admin errorMSG</t>
+  </si>
+  <si>
+    <t>btnLogin_Click</t>
+  </si>
+  <si>
+    <t>GetFeladatoksAsync</t>
+  </si>
+  <si>
+    <t>PostFeladatokFromTxt</t>
+  </si>
+  <si>
+    <t>DeletFeladatok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inaktív fiók</t>
+  </si>
+  <si>
+    <t>LogOut</t>
+  </si>
+  <si>
+    <t>GetImage</t>
+  </si>
+  <si>
+    <t>GetFelhasznalokAsync</t>
+  </si>
+  <si>
+    <t>PostFelhasznalo</t>
+  </si>
+  <si>
+    <t>DeletFelhasznalok</t>
+  </si>
+  <si>
+    <t>btnUjAdatokTxtbol_Click</t>
+  </si>
+  <si>
+    <t>LoadDatasAsync</t>
+  </si>
+  <si>
+    <t>A megadott file nem található</t>
   </si>
 </sst>
 </file>
@@ -345,7 +384,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,8 +403,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -388,11 +433,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -404,14 +569,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -800,945 +981,951 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="80.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="16">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="16">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="16">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="16">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="16">
         <v>33</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
+      <c r="A36" s="18">
         <v>34</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="16">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="16">
         <v>36</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="18">
         <v>37</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
+        <v>81</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
         <v>39</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
         <v>42</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
         <v>44</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
         <v>45</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B48" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
         <v>46</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
         <v>47</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
         <v>48</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
         <v>49</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B52" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
         <v>50</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="18">
         <v>52</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
         <v>53</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
         <v>54</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B57" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
         <v>55</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="B58" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
         <v>56</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
         <v>57</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="18">
         <v>58</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="16">
         <v>59</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="11" t="s">
+      <c r="B62" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
         <v>60</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
         <v>61</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B64" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="16">
         <v>62</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
         <v>63</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B66" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="16">
         <v>64</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="16">
         <v>65</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B68" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="16">
         <v>66</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B69" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="18">
         <v>67</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B70" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="16">
         <v>68</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="B71" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="16">
         <v>69</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B72" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
         <v>70</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B73" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="16">
         <v>71</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B74" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
-        <v>72</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="11" t="s">
+    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="16">
+        <v>72</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="16">
         <v>73</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="16">
         <v>74</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
+    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="18">
         <v>75</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B78" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="16">
         <v>76</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="16">
         <v>77</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="B80" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="16">
         <v>78</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B81" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="16">
         <v>79</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B82" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+    <row r="83" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="22">
         <v>80</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="11"/>
+      <c r="C84" s="6"/>
     </row>
     <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="11"/>
+      <c r="C85" s="6"/>
     </row>
     <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
@@ -1756,7 +1943,7 @@
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
+      <c r="A93" s="6"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
@@ -1770,8 +1957,8 @@
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
+    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
@@ -1791,180 +1978,317 @@
       <c r="C99" s="5"/>
     </row>
     <row r="100" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A100" s="9"/>
-      <c r="B100" s="12" t="s">
+      <c r="A100" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="9"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
+      <c r="C101" s="7"/>
+    </row>
+    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="9">
         <v>500</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
+      <c r="B102" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
         <v>501</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
+      <c r="B103" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
+        <v>502</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="25">
+        <v>503</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
+        <v>504</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="25">
+        <v>505</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="10">
+        <v>506</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="25">
+        <v>507</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="10">
+        <v>508</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="25">
+        <v>509</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="10">
+        <v>510</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="25">
+        <v>511</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="10">
+        <v>512</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="25">
+        <v>513</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="10">
+        <v>514</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="27">
+        <v>515</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="27">
+        <v>516</v>
+      </c>
       <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
+      <c r="C118" s="27"/>
+    </row>
+    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="27">
+        <v>517</v>
+      </c>
       <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="5"/>
+      <c r="C119" s="27"/>
+    </row>
+    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="27">
+        <v>518</v>
+      </c>
       <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
+      <c r="C120" s="27"/>
+    </row>
+    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="27">
+        <v>519</v>
+      </c>
       <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
+      <c r="C121" s="27"/>
+    </row>
+    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="27">
+        <v>520</v>
+      </c>
       <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
+      <c r="C122" s="27"/>
+    </row>
+    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="27">
+        <v>521</v>
+      </c>
       <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
+      <c r="C123" s="27"/>
+    </row>
+    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="27">
+        <v>522</v>
+      </c>
       <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
+      <c r="C124" s="27"/>
+    </row>
+    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="27">
+        <v>523</v>
+      </c>
       <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
+      <c r="C125" s="27"/>
+    </row>
+    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="27">
+        <v>524</v>
+      </c>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
+    <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="27">
+        <v>525</v>
+      </c>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
+    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="27">
+        <v>526</v>
+      </c>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
+    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="27">
+        <v>527</v>
+      </c>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
+    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="27">
+        <v>528</v>
+      </c>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
+    <row r="131" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="27">
+        <v>529</v>
+      </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
+    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="27">
+        <v>530</v>
+      </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
+    <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="27">
+        <v>531</v>
+      </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="27">
+        <v>532</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA84AD-D65C-4FE8-A6E2-67FC58AD46B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E815E7-8318-4632-AF2B-77532A8BBDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="107">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -340,13 +340,25 @@
   </si>
   <si>
     <t>A megadott file nem található</t>
+  </si>
+  <si>
+    <t>LoginRegistryWithGoogle</t>
+  </si>
+  <si>
+    <t>Ilyen nevű felhasználó nem létezik</t>
+  </si>
+  <si>
+    <t>JelszoModositas</t>
+  </si>
+  <si>
+    <t>GetThemes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,7 +374,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -370,32 +382,19 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -405,12 +404,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -488,9 +487,20 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -503,61 +513,14 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -568,31 +531,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -981,1316 +932,1824 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="80.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="80.21875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="15"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="27" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
+        <v>63</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="11">
+        <v>70</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>71</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
         <v>73</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="B75" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>38</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="21" t="s">
+      <c r="B78" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
+        <v>77</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
+        <v>78</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="11">
+        <v>79</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
+        <v>80</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
+        <v>81</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <v>39</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="21" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
+        <v>82</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
+        <v>83</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
+        <v>84</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
+        <v>85</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="11">
+        <v>86</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
+        <v>87</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="11">
+        <v>88</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>89</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>90</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
+        <v>91</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>92</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>93</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
+        <v>94</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="11">
+        <v>95</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>96</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
+        <v>97</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
+        <v>98</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
+        <v>99</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="11">
+        <v>100</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="11">
+        <v>101</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
+        <v>102</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
+        <v>103</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
+        <v>104</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>105</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
+        <v>106</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
+        <v>107</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="11">
+        <v>108</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="11">
+        <v>109</v>
+      </c>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>110</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="11">
+        <v>111</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="11">
+        <v>112</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="11">
+        <v>113</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="11">
+        <v>114</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
+        <v>115</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
+        <v>116</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="11">
+        <v>117</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>118</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="11">
+        <v>119</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="11">
+        <v>120</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="11">
+        <v>121</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="11">
+        <v>122</v>
+      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="11">
+        <v>123</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="11">
+        <v>124</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="11">
+        <v>125</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="11">
+        <v>126</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="11">
+        <v>127</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="11">
+        <v>128</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="11">
+        <v>129</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="11">
+        <v>130</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="11">
+        <v>131</v>
+      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="11">
+        <v>132</v>
+      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="11">
+        <v>133</v>
+      </c>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="11">
+        <v>134</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="11">
+        <v>135</v>
+      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="11">
+        <v>136</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="11">
+        <v>137</v>
+      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="11">
+        <v>138</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="11">
+        <v>139</v>
+      </c>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="11">
+        <v>140</v>
+      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="11">
+        <v>141</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="11">
+        <v>142</v>
+      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+    </row>
+    <row r="149" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A149" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A150" s="6"/>
+      <c r="B150" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="6"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="11">
+        <v>500</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="11">
+        <v>501</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="11">
+        <v>502</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="11">
+        <v>503</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="11">
+        <v>504</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="11">
+        <v>505</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="11">
+        <v>506</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
-        <v>40</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>41</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
-        <v>42</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
-        <v>43</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
-        <v>44</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="16">
-        <v>45</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="16">
-        <v>46</v>
-      </c>
-      <c r="B49" s="9" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="11">
+        <v>507</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="11">
+        <v>508</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="11">
+        <v>509</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="11">
+        <v>510</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="11">
+        <v>511</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="11">
+        <v>512</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="11">
+        <v>513</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="18">
-        <v>47</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
-        <v>48</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
-        <v>49</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
-        <v>50</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="C164" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="11">
+        <v>514</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="11">
+        <v>515</v>
+      </c>
+      <c r="B166" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
-        <v>51</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="18">
-        <v>52</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
-        <v>53</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
-        <v>54</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
-        <v>55</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
-        <v>56</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
-        <v>57</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="18">
-        <v>58</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
-        <v>59</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
-        <v>60</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="16">
-        <v>61</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="16">
-        <v>62</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="18">
-        <v>63</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
-        <v>64</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="16">
-        <v>65</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="16">
-        <v>66</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="18">
-        <v>67</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="16">
-        <v>68</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
-        <v>69</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="18">
-        <v>70</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="16">
-        <v>71</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
-        <v>72</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="16">
-        <v>73</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="16">
-        <v>74</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="18">
-        <v>75</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="16">
-        <v>76</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="16">
-        <v>77</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="16">
-        <v>78</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="16">
-        <v>79</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="22">
-        <v>80</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="6"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="6"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="6"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="9">
-        <v>500</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="9">
-        <v>501</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="10">
-        <v>502</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="25">
-        <v>503</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="10">
-        <v>504</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="25">
-        <v>505</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="10">
-        <v>506</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="25">
-        <v>507</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="10">
-        <v>508</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="25">
-        <v>509</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="10">
-        <v>510</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="25">
-        <v>511</v>
-      </c>
-      <c r="B113" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="10">
-        <v>512</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="25">
-        <v>513</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="10">
-        <v>514</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C116" s="10" t="s">
+      <c r="C166" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="27">
-        <v>515</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="27">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="11">
         <v>516</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="27"/>
-    </row>
-    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="27">
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="11">
         <v>517</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="27"/>
-    </row>
-    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="27">
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="11">
         <v>518</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="27"/>
-    </row>
-    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="27">
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="11">
         <v>519</v>
       </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="27"/>
-    </row>
-    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="27">
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="11">
         <v>520</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="C122" s="27"/>
-    </row>
-    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="27">
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="11">
         <v>521</v>
       </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="27"/>
-    </row>
-    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="27">
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="11">
         <v>522</v>
       </c>
-      <c r="B124" s="5"/>
-      <c r="C124" s="27"/>
-    </row>
-    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="27">
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="11">
         <v>523</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="27"/>
-    </row>
-    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="27">
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="11">
         <v>524</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-    </row>
-    <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="27">
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="11">
         <v>525</v>
       </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-    </row>
-    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="27">
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="11">
         <v>526</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-    </row>
-    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="27">
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="11">
         <v>527</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-    </row>
-    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="27">
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="11">
         <v>528</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-    </row>
-    <row r="131" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="27">
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="11">
         <v>529</v>
       </c>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-    </row>
-    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="27">
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="11">
         <v>530</v>
       </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="27">
-        <v>531</v>
-      </c>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-    </row>
-    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A134" s="27">
-        <v>532</v>
-      </c>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C93">
+    <sortCondition ref="A3:A93"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E815E7-8318-4632-AF2B-77532A8BBDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026086E7-AF53-4D40-B11C-8AFEFE324A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="109">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>GetThemes</t>
+  </si>
+  <si>
+    <t>btnSave_Click</t>
+  </si>
+  <si>
+    <t>SQLBackupAsync</t>
   </si>
 </sst>
 </file>
@@ -934,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2024,22 +2030,34 @@
       <c r="A99" s="11">
         <v>97</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
+      <c r="B99" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
         <v>98</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
+      <c r="B100" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="11">
         <v>99</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
+      <c r="B101" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
@@ -2555,8 +2573,12 @@
       <c r="A167" s="11">
         <v>516</v>
       </c>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
+      <c r="B167" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="11">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026086E7-AF53-4D40-B11C-8AFEFE324A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0253610-150D-4001-A9D6-075FC514D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="113">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -358,6 +358,18 @@
   </si>
   <si>
     <t>SQLBackupAsync</t>
+  </si>
+  <si>
+    <t>PutFelhasznalo</t>
+  </si>
+  <si>
+    <t>Már létezik ilyen felhasználónév!</t>
+  </si>
+  <si>
+    <t>Az e-mail cím már foglalt!</t>
+  </si>
+  <si>
+    <t>SQLRestoreAsync</t>
   </si>
 </sst>
 </file>
@@ -940,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1891,7 +1903,7 @@
         <v>63</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1902,7 +1914,7 @@
         <v>60</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1913,7 +1925,7 @@
         <v>72</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1924,7 +1936,7 @@
         <v>65</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1935,7 +1947,7 @@
         <v>65</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2063,36 +2075,56 @@
       <c r="A102" s="11">
         <v>100</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
+      <c r="B102" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="11">
         <v>101</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
+      <c r="B103" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
         <v>102</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
+      <c r="B104" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
         <v>103</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <v>104</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
+      <c r="B106" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="11">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0253610-150D-4001-A9D6-075FC514D642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD250813-913F-489C-B6FB-E7073BF29B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="116">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -370,6 +370,15 @@
   </si>
   <si>
     <t>SQLRestoreAsync</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Restore</t>
+  </si>
+  <si>
+    <t>GetBackedUpFiles</t>
   </si>
 </sst>
 </file>
@@ -952,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2130,29 +2139,45 @@
       <c r="A107" s="11">
         <v>105</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
+      <c r="B107" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
         <v>106</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
+      <c r="B108" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>107</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
+      <c r="B109" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
         <v>108</v>
       </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
+      <c r="B110" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
@@ -2616,15 +2641,23 @@
       <c r="A168" s="11">
         <v>517</v>
       </c>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
+      <c r="B168" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="11">
         <v>518</v>
       </c>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
+      <c r="B169" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="11">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD250813-913F-489C-B6FB-E7073BF29B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEFD1CC-9970-4053-9C4F-8E8BCAA1852D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="119">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -379,6 +379,15 @@
   </si>
   <si>
     <t>GetBackedUpFiles</t>
+  </si>
+  <si>
+    <t>GetSzintekAsync</t>
+  </si>
+  <si>
+    <t>GetPermessionskAsync</t>
+  </si>
+  <si>
+    <t>GetTipusAsync</t>
   </si>
 </sst>
 </file>
@@ -961,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2663,22 +2672,34 @@
       <c r="A170" s="11">
         <v>519</v>
       </c>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
+      <c r="B170" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="11">
         <v>520</v>
       </c>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
+      <c r="B171" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="11">
         <v>521</v>
       </c>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
+      <c r="B172" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="11">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEFD1CC-9970-4053-9C4F-8E8BCAA1852D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF7C559-A8DA-41A1-8B07-63A7EE79BF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="122">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>GetTipusAsync</t>
+  </si>
+  <si>
+    <t>CaptchaLogin</t>
+  </si>
+  <si>
+    <t>CAPTCHA hitelesítései hiba</t>
+  </si>
+  <si>
+    <t>CAPTCHA kitöltése szükséges</t>
   </si>
 </sst>
 </file>
@@ -970,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2192,29 +2201,45 @@
       <c r="A111" s="11">
         <v>109</v>
       </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
+      <c r="B111" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="11">
         <v>110</v>
       </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
+      <c r="B112" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="11">
         <v>111</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
+      <c r="B113" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="11">
         <v>112</v>
       </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
+      <c r="B114" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="11">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF7C559-A8DA-41A1-8B07-63A7EE79BF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85852609-F7F1-403F-8B12-15443509F5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="124">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>CAPTCHA kitöltése szükséges</t>
+  </si>
+  <si>
+    <t>ElfelejtettJelszo</t>
+  </si>
+  <si>
+    <t>GetUserStatistic</t>
   </si>
 </sst>
 </file>
@@ -977,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2245,57 +2251,89 @@
       <c r="A115" s="11">
         <v>113</v>
       </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
+      <c r="B115" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="11">
         <v>114</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
+      <c r="B116" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="11">
         <v>115</v>
       </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
+      <c r="B117" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="11">
         <v>116</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
+      <c r="B118" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
         <v>117</v>
       </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
+      <c r="B119" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>118</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
+      <c r="B120" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>119</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
+      <c r="B121" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
         <v>120</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
+      <c r="B122" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="11">
@@ -2466,418 +2504,578 @@
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
     </row>
-    <row r="149" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A149" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A150" s="6"/>
-      <c r="B150" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" s="6"/>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="11">
-        <v>500</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>90</v>
-      </c>
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="11">
-        <v>501</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C152" s="11" t="s">
-        <v>90</v>
-      </c>
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="11">
-        <v>502</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C153" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="11">
-        <v>503</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C154" s="11" t="s">
-        <v>92</v>
-      </c>
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="11">
-        <v>504</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C155" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="11">
-        <v>505</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="11">
-        <v>506</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C157" s="11" t="s">
-        <v>76</v>
-      </c>
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="11">
-        <v>507</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C158" s="11" t="s">
-        <v>95</v>
-      </c>
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="11">
-        <v>508</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C159" s="11" t="s">
-        <v>96</v>
-      </c>
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="11">
-        <v>509</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C160" s="11" t="s">
-        <v>97</v>
-      </c>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="11">
-        <v>510</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C161" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="11">
-        <v>511</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C162" s="11" t="s">
-        <v>99</v>
-      </c>
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="11">
-        <v>512</v>
-      </c>
-      <c r="B163" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C163" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="11">
-        <v>513</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C164" s="11" t="s">
-        <v>101</v>
-      </c>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="11">
-        <v>514</v>
-      </c>
-      <c r="B165" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C165" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="11">
-        <v>515</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C166" s="11" t="s">
-        <v>100</v>
-      </c>
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="11">
-        <v>516</v>
-      </c>
-      <c r="B167" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C167" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="11">
-        <v>517</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C168" s="11" t="s">
-        <v>113</v>
-      </c>
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="11">
-        <v>518</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C169" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="11">
-        <v>519</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C170" s="11" t="s">
-        <v>116</v>
-      </c>
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="11">
-        <v>520</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C171" s="11" t="s">
-        <v>117</v>
-      </c>
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="11">
-        <v>521</v>
-      </c>
-      <c r="B172" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C172" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="11">
-        <v>522</v>
-      </c>
+      <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="11">
-        <v>523</v>
-      </c>
+      <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="11">
-        <v>524</v>
-      </c>
+      <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="11">
-        <v>525</v>
-      </c>
+      <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="11">
-        <v>526</v>
-      </c>
+      <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="11">
-        <v>527</v>
-      </c>
+      <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="11">
-        <v>528</v>
-      </c>
+      <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="11">
+    <row r="181" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A181" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A182" s="6"/>
+      <c r="B182" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C182" s="6"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="11">
+        <v>500</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="11">
+        <v>501</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="11">
+        <v>502</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="11">
+        <v>503</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="11">
+        <v>504</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C187" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="11">
+        <v>505</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="11">
+        <v>506</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="11">
+        <v>507</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="11">
+        <v>508</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="11">
+        <v>509</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="11">
+        <v>510</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="11">
+        <v>511</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="11">
+        <v>512</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="11">
+        <v>513</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="11">
+        <v>514</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C197" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="11">
+        <v>515</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="11">
+        <v>516</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="11">
+        <v>517</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="11">
+        <v>518</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C201" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="11">
+        <v>519</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="11">
+        <v>520</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C203" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="11">
+        <v>521</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="11">
+        <v>522</v>
+      </c>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="11">
+        <v>523</v>
+      </c>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="11">
+        <v>524</v>
+      </c>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="11">
+        <v>525</v>
+      </c>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="11">
+        <v>526</v>
+      </c>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="11">
+        <v>527</v>
+      </c>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="11">
+        <v>528</v>
+      </c>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="11">
         <v>529</v>
       </c>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="11">
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="11">
         <v>530</v>
       </c>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="11"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="11"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="11"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="11"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C93">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85852609-F7F1-403F-8B12-15443509F5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8757607-1D52-4EA9-939C-3C92A4B1A8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="127">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -403,13 +403,22 @@
   </si>
   <si>
     <t>GetUserStatistic</t>
+  </si>
+  <si>
+    <t>PutUserStatistic</t>
+  </si>
+  <si>
+    <t>GetUserStatistics</t>
+  </si>
+  <si>
+    <t>PostUserStatistic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,7 +442,15 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -582,19 +599,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -985,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -997,2085 +1026,2201 @@
     <col min="4" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:3" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
+      <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+      <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
+      <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+      <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+      <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+      <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="11">
+      <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+      <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
+      <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+      <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
+      <c r="A58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+      <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
+      <c r="A60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+      <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="11" t="s">
+      <c r="B61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+      <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+      <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+      <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="11">
+      <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+      <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
+      <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+      <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
+      <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+      <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="11">
-        <v>72</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="A74" s="6">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+      <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="11">
+      <c r="A76" s="6">
         <v>74</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+      <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
+      <c r="A78" s="6">
         <v>76</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
+      <c r="A80" s="6">
         <v>78</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+      <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="11">
+      <c r="A82" s="6">
         <v>80</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="A83" s="6">
         <v>81</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
+      <c r="A84" s="6">
         <v>82</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C84" s="11" t="s">
+      <c r="B84" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
+      <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
+      <c r="A86" s="6">
         <v>84</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+      <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="11">
+      <c r="A88" s="6">
         <v>86</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+      <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="11">
+      <c r="A90" s="6">
         <v>88</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
+      <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
+      <c r="A92" s="6">
         <v>90</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="11" t="s">
+      <c r="B92" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
+      <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
+      <c r="A94" s="6">
         <v>92</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+      <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="11">
+      <c r="A96" s="6">
         <v>94</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
+      <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" s="11" t="s">
+      <c r="B97" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="11">
+      <c r="A98" s="6">
         <v>96</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
+      <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="11">
+      <c r="A100" s="6">
         <v>98</v>
       </c>
-      <c r="B100" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C100" s="11" t="s">
+      <c r="B100" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="11">
+      <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="11">
+      <c r="A102" s="6">
         <v>100</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="11">
+      <c r="A103" s="6">
         <v>101</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="11">
+      <c r="A104" s="6">
         <v>102</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="11">
+      <c r="A105" s="6">
         <v>103</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" s="11" t="s">
+      <c r="B105" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="11">
+      <c r="A106" s="6">
         <v>104</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="11">
+      <c r="A107" s="6">
         <v>105</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="11">
+      <c r="A108" s="6">
         <v>106</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="11">
+      <c r="A109" s="6">
         <v>107</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="11">
+      <c r="A110" s="6">
         <v>108</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="11">
+      <c r="A111" s="6">
         <v>109</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="11">
+      <c r="A112" s="6">
         <v>110</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
+      <c r="A113" s="6">
         <v>111</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="11">
+      <c r="A114" s="6">
         <v>112</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="11">
+      <c r="A115" s="6">
         <v>113</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C115" s="11" t="s">
+      <c r="B115" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="11">
+      <c r="A116" s="6">
         <v>114</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="11">
+      <c r="A117" s="6">
         <v>115</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="11">
+      <c r="A118" s="6">
         <v>116</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="11">
+      <c r="A119" s="6">
         <v>117</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="11">
+      <c r="A120" s="6">
         <v>118</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C120" s="11" t="s">
+      <c r="B120" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="11">
+      <c r="A121" s="6">
         <v>119</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="11">
+      <c r="A122" s="6">
         <v>120</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="11">
+      <c r="A123" s="6">
         <v>121</v>
       </c>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
+      <c r="B123" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="11">
+      <c r="A124" s="6">
         <v>122</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
+      <c r="B124" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="11">
+      <c r="A125" s="6">
         <v>123</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
+      <c r="B125" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="11">
+      <c r="A126" s="6">
         <v>124</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
+      <c r="B126" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="11">
+      <c r="A127" s="6">
         <v>125</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
+      <c r="B127" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="11">
+      <c r="A128" s="6">
         <v>126</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
+      <c r="B128" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="11">
+      <c r="A129" s="6">
         <v>127</v>
       </c>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
+      <c r="B129" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="11">
+      <c r="A130" s="6">
         <v>128</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
+      <c r="B130" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="11">
+      <c r="A131" s="6">
         <v>129</v>
       </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
+      <c r="B131" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="11">
+      <c r="A132" s="6">
         <v>130</v>
       </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
+      <c r="B132" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="11">
+      <c r="A133" s="6">
         <v>131</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
+      <c r="B133" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="11">
+      <c r="A134" s="6">
         <v>132</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
+      <c r="B134" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="11">
+      <c r="A135" s="6">
         <v>133</v>
       </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="11">
+      <c r="A136" s="6">
         <v>134</v>
       </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="11">
+      <c r="A137" s="6">
         <v>135</v>
       </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="11">
+      <c r="A138" s="6">
         <v>136</v>
       </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="11">
+      <c r="A139" s="6">
         <v>137</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="11">
+      <c r="A140" s="6">
         <v>138</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="11">
+      <c r="A141" s="6">
         <v>139</v>
       </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="11">
+      <c r="A142" s="6">
         <v>140</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="11">
+      <c r="A143" s="6">
         <v>141</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="11">
+      <c r="A144" s="6">
         <v>142</v>
       </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
+      <c r="A145" s="6">
+        <v>143</v>
+      </c>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
+      <c r="A146" s="6">
+        <v>144</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
+      <c r="A147" s="6">
+        <v>145</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
+      <c r="A148" s="6">
+        <v>146</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
+      <c r="A149" s="6">
+        <v>147</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
+      <c r="A150" s="6">
+        <v>148</v>
+      </c>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
+      <c r="A151" s="6">
+        <v>149</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
+      <c r="A152" s="6">
+        <v>150</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
+      <c r="A153" s="6">
+        <v>151</v>
+      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
+      <c r="A154" s="6">
+        <v>152</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
+      <c r="A155" s="6">
+        <v>153</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
+      <c r="A156" s="6">
+        <v>154</v>
+      </c>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
+      <c r="A157" s="6">
+        <v>155</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
+      <c r="A158" s="6">
+        <v>156</v>
+      </c>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
+      <c r="A159" s="6">
+        <v>157</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
+      <c r="A160" s="6">
+        <v>158</v>
+      </c>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
+      <c r="A161" s="6">
+        <v>159</v>
+      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
+      <c r="A162" s="6">
+        <v>160</v>
+      </c>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
+      <c r="A163" s="6">
+        <v>161</v>
+      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
+      <c r="A164" s="6">
+        <v>162</v>
+      </c>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
+      <c r="A165" s="6">
+        <v>163</v>
+      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
+      <c r="A166" s="6">
+        <v>164</v>
+      </c>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
+      <c r="A167" s="6">
+        <v>165</v>
+      </c>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
+      <c r="A168" s="6">
+        <v>166</v>
+      </c>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
+      <c r="A169" s="6">
+        <v>167</v>
+      </c>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
+      <c r="A170" s="6">
+        <v>168</v>
+      </c>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
+      <c r="A171" s="6">
+        <v>169</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
+      <c r="A172" s="6">
+        <v>170</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
+      <c r="A173" s="6">
+        <v>171</v>
+      </c>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
+      <c r="A174" s="6">
+        <v>172</v>
+      </c>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
+      <c r="A175" s="6">
+        <v>173</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
+      <c r="A176" s="6">
+        <v>174</v>
+      </c>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
+      <c r="A177" s="6">
+        <v>175</v>
+      </c>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
+      <c r="A178" s="6">
+        <v>176</v>
+      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-    </row>
-    <row r="181" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A181" s="6" t="s">
+      <c r="A179" s="6"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+    </row>
+    <row r="181" spans="1:3" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A182" s="6"/>
+    <row r="182" spans="1:3" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="8"/>
       <c r="B182" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C182" s="6"/>
+      <c r="C182" s="8"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="11">
+      <c r="A183" s="6">
         <v>500</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="11">
+      <c r="A184" s="6">
         <v>501</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C184" s="11" t="s">
+      <c r="B184" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="11">
+      <c r="A185" s="6">
         <v>502</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C185" s="11" t="s">
+      <c r="B185" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="11">
+      <c r="A186" s="6">
         <v>503</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C186" s="11" t="s">
+      <c r="B186" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="11">
+      <c r="A187" s="6">
         <v>504</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C187" s="11" t="s">
+      <c r="B187" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="11">
+      <c r="A188" s="6">
         <v>505</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C188" s="11" t="s">
+      <c r="B188" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="11">
+      <c r="A189" s="6">
         <v>506</v>
       </c>
-      <c r="B189" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C189" s="11" t="s">
+      <c r="B189" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="11">
+      <c r="A190" s="6">
         <v>507</v>
       </c>
-      <c r="B190" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C190" s="11" t="s">
+      <c r="B190" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="11">
+      <c r="A191" s="6">
         <v>508</v>
       </c>
-      <c r="B191" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C191" s="11" t="s">
+      <c r="B191" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="11">
+      <c r="A192" s="6">
         <v>509</v>
       </c>
-      <c r="B192" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C192" s="11" t="s">
+      <c r="B192" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="11">
+      <c r="A193" s="6">
         <v>510</v>
       </c>
-      <c r="B193" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C193" s="11" t="s">
+      <c r="B193" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="11">
+      <c r="A194" s="6">
         <v>511</v>
       </c>
-      <c r="B194" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C194" s="11" t="s">
+      <c r="B194" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="11">
+      <c r="A195" s="6">
         <v>512</v>
       </c>
-      <c r="B195" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C195" s="11" t="s">
+      <c r="B195" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="11">
+      <c r="A196" s="6">
         <v>513</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="11">
+      <c r="A197" s="6">
         <v>514</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="11">
+      <c r="A198" s="6">
         <v>515</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="6" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="11">
+      <c r="A199" s="6">
         <v>516</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="11">
+      <c r="A200" s="6">
         <v>517</v>
       </c>
-      <c r="B200" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C200" s="11" t="s">
+      <c r="B200" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="11">
+      <c r="A201" s="6">
         <v>518</v>
       </c>
-      <c r="B201" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C201" s="11" t="s">
+      <c r="B201" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="11">
+      <c r="A202" s="6">
         <v>519</v>
       </c>
-      <c r="B202" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C202" s="11" t="s">
+      <c r="B202" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C202" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="11">
+      <c r="A203" s="6">
         <v>520</v>
       </c>
-      <c r="B203" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C203" s="11" t="s">
+      <c r="B203" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="11">
+      <c r="A204" s="6">
         <v>521</v>
       </c>
-      <c r="B204" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C204" s="11" t="s">
+      <c r="B204" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="11">
+      <c r="A205" s="6">
         <v>522</v>
       </c>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="11">
+      <c r="A206" s="6">
         <v>523</v>
       </c>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="11">
+      <c r="A207" s="6">
         <v>524</v>
       </c>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="11">
+      <c r="A208" s="6">
         <v>525</v>
       </c>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="11">
+      <c r="A209" s="6">
         <v>526</v>
       </c>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="11">
+      <c r="A210" s="6">
         <v>527</v>
       </c>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="11">
+      <c r="A211" s="6">
         <v>528</v>
       </c>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="11">
+      <c r="A212" s="6">
         <v>529</v>
       </c>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="11">
+      <c r="A213" s="6">
         <v>530</v>
       </c>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
+      <c r="A217" s="6"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
+      <c r="A219" s="6"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
+      <c r="A220" s="6"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="11"/>
+      <c r="A221" s="6"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="11"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
+      <c r="A227" s="6"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
+      <c r="A228" s="6"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
+      <c r="A229" s="6"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="11"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C93">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8757607-1D52-4EA9-939C-3C92A4B1A8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D1157-65A4-44D3-AEF1-6F4AD40B582E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="129">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>PostUserStatistic</t>
+  </si>
+  <si>
+    <t>CheckCaptcha</t>
+  </si>
+  <si>
+    <t>A keresett adatok nem találhatóak</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2204,7 +2210,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>115</v>
@@ -2240,7 +2246,7 @@
         <v>121</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2251,7 +2257,7 @@
         <v>120</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2500,8 +2506,12 @@
       <c r="A135" s="6">
         <v>133</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="B135" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="6">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D1157-65A4-44D3-AEF1-6F4AD40B582E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4241A8F-69BD-4AC6-85C9-2F374A11275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="131">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -402,22 +402,28 @@
     <t>ElfelejtettJelszo</t>
   </si>
   <si>
-    <t>GetUserStatistic</t>
-  </si>
-  <si>
-    <t>PutUserStatistic</t>
-  </si>
-  <si>
-    <t>GetUserStatistics</t>
+    <t>CheckCaptcha</t>
+  </si>
+  <si>
+    <t>A keresett adatok nem találhatóak</t>
+  </si>
+  <si>
+    <t>GetMatchHistory</t>
+  </si>
+  <si>
+    <t>GetStatisticsDeatiled</t>
+  </si>
+  <si>
+    <t>GetTaskFilloutCount</t>
   </si>
   <si>
     <t>PostUserStatistic</t>
   </si>
   <si>
-    <t>CheckCaptcha</t>
-  </si>
-  <si>
-    <t>A keresett adatok nem találhatóak</t>
+    <t>GetFillingByDate</t>
+  </si>
+  <si>
+    <t>DeleteUserStatistic</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2210,7 +2216,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>115</v>
@@ -2246,7 +2252,7 @@
         <v>121</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2257,7 +2263,7 @@
         <v>120</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2323,7 +2329,7 @@
         <v>63</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2331,10 +2337,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2342,10 +2348,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2353,10 +2359,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2364,10 +2370,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2375,10 +2381,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -2386,10 +2392,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2400,7 +2406,7 @@
         <v>72</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -2411,7 +2417,7 @@
         <v>65</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2419,10 +2425,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2430,10 +2436,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2441,10 +2447,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -2452,10 +2458,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -2463,10 +2469,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2477,7 +2483,7 @@
         <v>72</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -2488,7 +2494,7 @@
         <v>65</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2496,10 +2502,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2517,22 +2523,34 @@
       <c r="A136" s="6">
         <v>134</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
+      <c r="B136" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>135</v>
       </c>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
+      <c r="B137" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>136</v>
       </c>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
+      <c r="B138" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="6">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4241A8F-69BD-4AC6-85C9-2F374A11275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97049823-906C-4F58-9D0A-849A33480998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="139">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -424,6 +424,30 @@
   </si>
   <si>
     <t>DeleteUserStatistic</t>
+  </si>
+  <si>
+    <t>GetPermissions</t>
+  </si>
+  <si>
+    <t>GetLevels</t>
+  </si>
+  <si>
+    <t>GetThemesBySubject</t>
+  </si>
+  <si>
+    <t>PutTheme</t>
+  </si>
+  <si>
+    <t>PostTheme</t>
+  </si>
+  <si>
+    <t>PutPermission</t>
+  </si>
+  <si>
+    <t>PostPermission</t>
+  </si>
+  <si>
+    <t>DeletePermission</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2556,169 +2580,265 @@
       <c r="A139" s="6">
         <v>137</v>
       </c>
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
+      <c r="B139" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>138</v>
       </c>
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
+      <c r="B140" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>139</v>
       </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
+      <c r="B141" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>140</v>
       </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
+      <c r="B142" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>141</v>
       </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
+      <c r="B143" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>142</v>
       </c>
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
+      <c r="B144" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>143</v>
       </c>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
+      <c r="B145" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>144</v>
       </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
+      <c r="B146" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>145</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
+      <c r="B147" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>146</v>
       </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
+      <c r="B148" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>147</v>
       </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
+      <c r="B149" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>148</v>
       </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
+      <c r="B150" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>149</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
+      <c r="B151" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>150</v>
       </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
+      <c r="B152" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>151</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
+      <c r="B153" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>152</v>
       </c>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
+      <c r="B154" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>153</v>
       </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
+      <c r="B155" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>154</v>
       </c>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
+      <c r="B156" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>155</v>
       </c>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
+      <c r="B157" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>156</v>
       </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
+      <c r="B158" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>157</v>
       </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
+      <c r="B159" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>158</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
+      <c r="B160" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>159</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
+      <c r="B161" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>160</v>
       </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
+      <c r="B162" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="6">

--- a/testDoksi.xlsx
+++ b/testDoksi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernát Olivér\Desktop\doski\Erettsegizzunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97049823-906C-4F58-9D0A-849A33480998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D56CBB2-4C99-4521-A2D1-E3523F52BE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="142">
   <si>
     <t>Teszt lépés</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>DeletePermission</t>
+  </si>
+  <si>
+    <t>Hibás régi jelszó!</t>
+  </si>
+  <si>
+    <t>GetTypes</t>
+  </si>
+  <si>
+    <t>GetStreakCount</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487B678-5BA6-44EE-BB72-0A61B2EBDFBA}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F170" sqref="F170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2844,43 +2853,67 @@
       <c r="A163" s="6">
         <v>161</v>
       </c>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
+      <c r="B163" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>162</v>
       </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
+      <c r="B164" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>163</v>
       </c>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
+      <c r="B165" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>164</v>
       </c>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
+      <c r="B166" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>165</v>
       </c>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
+      <c r="B167" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>166</v>
       </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
+      <c r="B168" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
